--- a/data/pca/factorExposure/factorExposure_2015-08-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0184857225497819</v>
+        <v>0.01362011621783214</v>
       </c>
       <c r="C2">
-        <v>-0.03055981633576786</v>
+        <v>0.04592367656730068</v>
       </c>
       <c r="D2">
-        <v>-0.1328316225427694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1413772850381861</v>
+      </c>
+      <c r="E2">
+        <v>-0.002773526235436262</v>
+      </c>
+      <c r="F2">
+        <v>-0.001293119664895078</v>
+      </c>
+      <c r="G2">
+        <v>-0.1117430501374877</v>
+      </c>
+      <c r="H2">
+        <v>-0.03891720161485367</v>
+      </c>
+      <c r="I2">
+        <v>0.06826511224099047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.02819140408967084</v>
+        <v>-0.02477348273596031</v>
       </c>
       <c r="C3">
-        <v>-0.03548839178372434</v>
+        <v>0.01626606320037816</v>
       </c>
       <c r="D3">
-        <v>-0.01738038430099463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.02446944932499871</v>
+      </c>
+      <c r="E3">
+        <v>-0.04479015774100541</v>
+      </c>
+      <c r="F3">
+        <v>-0.02484189889536808</v>
+      </c>
+      <c r="G3">
+        <v>-0.1029312116238402</v>
+      </c>
+      <c r="H3">
+        <v>-0.008606486554545651</v>
+      </c>
+      <c r="I3">
+        <v>-0.0785067924275558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03251320763020726</v>
+        <v>0.02367128381048008</v>
       </c>
       <c r="C4">
-        <v>-0.06998158973136394</v>
+        <v>0.08785321807064123</v>
       </c>
       <c r="D4">
-        <v>-0.1395047001046215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.152135563702553</v>
+      </c>
+      <c r="E4">
+        <v>-0.02167244595231009</v>
+      </c>
+      <c r="F4">
+        <v>-0.0834169547612461</v>
+      </c>
+      <c r="G4">
+        <v>0.002428806538949115</v>
+      </c>
+      <c r="H4">
+        <v>-0.04374560029108459</v>
+      </c>
+      <c r="I4">
+        <v>0.01075637974171963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02186393630083652</v>
+        <v>0.02323694275677578</v>
       </c>
       <c r="C6">
-        <v>-0.01668035766468028</v>
+        <v>0.02934158557772436</v>
       </c>
       <c r="D6">
-        <v>-0.1513769445580495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1315112477765375</v>
+      </c>
+      <c r="E6">
+        <v>0.03542154391348792</v>
+      </c>
+      <c r="F6">
+        <v>-0.05305181750330287</v>
+      </c>
+      <c r="G6">
+        <v>-0.04522370451206203</v>
+      </c>
+      <c r="H6">
+        <v>-0.02577382535876249</v>
+      </c>
+      <c r="I6">
+        <v>-0.02255713954255341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009131490445990464</v>
+        <v>0.006837137196282142</v>
       </c>
       <c r="C7">
-        <v>-0.02704678119722256</v>
+        <v>0.0351284592458827</v>
       </c>
       <c r="D7">
-        <v>-0.1167118142875293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09731909777718496</v>
+      </c>
+      <c r="E7">
+        <v>0.04210222955178412</v>
+      </c>
+      <c r="F7">
+        <v>-0.009001149626696554</v>
+      </c>
+      <c r="G7">
+        <v>-0.03778839200618675</v>
+      </c>
+      <c r="H7">
+        <v>-0.05867840011755555</v>
+      </c>
+      <c r="I7">
+        <v>-0.04530027325779519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002187285426528405</v>
+        <v>-0.004221891579387128</v>
       </c>
       <c r="C8">
-        <v>-0.03266649306132097</v>
+        <v>0.03905493328822312</v>
       </c>
       <c r="D8">
-        <v>-0.08341329619183177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08260195261004069</v>
+      </c>
+      <c r="E8">
+        <v>0.01249261764605166</v>
+      </c>
+      <c r="F8">
+        <v>-0.04788435422360084</v>
+      </c>
+      <c r="G8">
+        <v>-0.0927637166068776</v>
+      </c>
+      <c r="H8">
+        <v>0.01140042088892388</v>
+      </c>
+      <c r="I8">
+        <v>-0.03498204270106509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02710890826878042</v>
+        <v>0.017845815672867</v>
       </c>
       <c r="C9">
-        <v>-0.06602803404475013</v>
+        <v>0.07845818305891152</v>
       </c>
       <c r="D9">
-        <v>-0.1327799445186175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1284745659508907</v>
+      </c>
+      <c r="E9">
+        <v>-0.01036906717285507</v>
+      </c>
+      <c r="F9">
+        <v>-0.04920079624924962</v>
+      </c>
+      <c r="G9">
+        <v>0.00374524274978086</v>
+      </c>
+      <c r="H9">
+        <v>-0.04889052752037445</v>
+      </c>
+      <c r="I9">
+        <v>0.0009768413156170531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.160620766612632</v>
+        <v>0.2126867678462991</v>
       </c>
       <c r="C10">
-        <v>0.1639007953977009</v>
+        <v>-0.1237992410298686</v>
       </c>
       <c r="D10">
-        <v>-0.02074474380002296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01132266149914037</v>
+      </c>
+      <c r="E10">
+        <v>-0.02833790427365711</v>
+      </c>
+      <c r="F10">
+        <v>-0.04933051101667502</v>
+      </c>
+      <c r="G10">
+        <v>0.006194508611644443</v>
+      </c>
+      <c r="H10">
+        <v>0.05954611677921345</v>
+      </c>
+      <c r="I10">
+        <v>-0.1178590121047403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02104499078258559</v>
+        <v>0.01314470822201303</v>
       </c>
       <c r="C11">
-        <v>-0.04478733261085227</v>
+        <v>0.05323718768699071</v>
       </c>
       <c r="D11">
-        <v>-0.05537267960891686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04971461379346542</v>
+      </c>
+      <c r="E11">
+        <v>0.02016167336799656</v>
+      </c>
+      <c r="F11">
+        <v>0.01396329551384685</v>
+      </c>
+      <c r="G11">
+        <v>-0.01078103787319343</v>
+      </c>
+      <c r="H11">
+        <v>-0.04430782674214041</v>
+      </c>
+      <c r="I11">
+        <v>0.005983677046220152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02290799693345473</v>
+        <v>0.01419496198366519</v>
       </c>
       <c r="C12">
-        <v>-0.04269502840645802</v>
+        <v>0.04900347668167617</v>
       </c>
       <c r="D12">
-        <v>-0.06783093079391356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05181900425984409</v>
+      </c>
+      <c r="E12">
+        <v>0.0158800293034966</v>
+      </c>
+      <c r="F12">
+        <v>0.01568700030105183</v>
+      </c>
+      <c r="G12">
+        <v>-0.007814747483455805</v>
+      </c>
+      <c r="H12">
+        <v>-0.07264322549576048</v>
+      </c>
+      <c r="I12">
+        <v>-0.003439082321620409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0006967849001815532</v>
+        <v>0.002268616699351876</v>
       </c>
       <c r="C13">
-        <v>-0.0287287064938336</v>
+        <v>0.04118603905601033</v>
       </c>
       <c r="D13">
-        <v>-0.1526212825827762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1582154174749169</v>
+      </c>
+      <c r="E13">
+        <v>0.03928599443180096</v>
+      </c>
+      <c r="F13">
+        <v>-0.04201305589688979</v>
+      </c>
+      <c r="G13">
+        <v>-0.05722879345968006</v>
+      </c>
+      <c r="H13">
+        <v>-0.05363043029073353</v>
+      </c>
+      <c r="I13">
+        <v>-0.05958510796407514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004953358548327416</v>
+        <v>-0.001390403497673821</v>
       </c>
       <c r="C14">
-        <v>-0.02278327171994473</v>
+        <v>0.02677433568098318</v>
       </c>
       <c r="D14">
-        <v>-0.1095843492151717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1071622221210433</v>
+      </c>
+      <c r="E14">
+        <v>0.01929414672217584</v>
+      </c>
+      <c r="F14">
+        <v>-0.01952558052719284</v>
+      </c>
+      <c r="G14">
+        <v>-0.06401850866218187</v>
+      </c>
+      <c r="H14">
+        <v>-0.09911340366071528</v>
+      </c>
+      <c r="I14">
+        <v>-0.009587554787101722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003008354585738798</v>
+        <v>-0.0001257737592427325</v>
       </c>
       <c r="C15">
-        <v>-0.01109370294569318</v>
+        <v>0.01644118816113071</v>
       </c>
       <c r="D15">
-        <v>-0.02351313024831806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0483047326196537</v>
+      </c>
+      <c r="E15">
+        <v>0.004298897986560451</v>
+      </c>
+      <c r="F15">
+        <v>-0.00179719973701386</v>
+      </c>
+      <c r="G15">
+        <v>-0.02268601747794552</v>
+      </c>
+      <c r="H15">
+        <v>-0.01115705885642323</v>
+      </c>
+      <c r="I15">
+        <v>0.02127738320950439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01975960950418157</v>
+        <v>0.01344930213708922</v>
       </c>
       <c r="C16">
-        <v>-0.04052518623160292</v>
+        <v>0.04745561549669492</v>
       </c>
       <c r="D16">
-        <v>-0.06308103122305252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05015449341170272</v>
+      </c>
+      <c r="E16">
+        <v>0.0198040730094039</v>
+      </c>
+      <c r="F16">
+        <v>0.00772009679719061</v>
+      </c>
+      <c r="G16">
+        <v>-0.004045935169874485</v>
+      </c>
+      <c r="H16">
+        <v>-0.05180796341150146</v>
+      </c>
+      <c r="I16">
+        <v>0.004456718006101763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.00245836322162055</v>
+        <v>-0.004064076310715622</v>
       </c>
       <c r="C19">
-        <v>-0.02524007656442605</v>
+        <v>0.01957106511945756</v>
       </c>
       <c r="D19">
-        <v>-0.1415465655019919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.096275152502394</v>
+      </c>
+      <c r="E19">
+        <v>-0.02146538130954666</v>
+      </c>
+      <c r="F19">
+        <v>-0.009974015376885914</v>
+      </c>
+      <c r="G19">
+        <v>-0.03770052356089759</v>
+      </c>
+      <c r="H19">
+        <v>-0.06491080356635436</v>
+      </c>
+      <c r="I19">
+        <v>-0.03248365062184245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002131840870519093</v>
+        <v>0.003342572091001125</v>
       </c>
       <c r="C20">
-        <v>-0.03152762203802693</v>
+        <v>0.03806191828984336</v>
       </c>
       <c r="D20">
-        <v>-0.094141052308158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1029340858396182</v>
+      </c>
+      <c r="E20">
+        <v>-0.003734699903394795</v>
+      </c>
+      <c r="F20">
+        <v>-0.03135825481905657</v>
+      </c>
+      <c r="G20">
+        <v>-0.03996172339847116</v>
+      </c>
+      <c r="H20">
+        <v>-0.05726469979111739</v>
+      </c>
+      <c r="I20">
+        <v>-0.02425951205553925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0005140924609255864</v>
+        <v>-0.001535717653665906</v>
       </c>
       <c r="C21">
-        <v>-0.03609466118864238</v>
+        <v>0.04273644218677067</v>
       </c>
       <c r="D21">
-        <v>-0.1720626767227242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.148563551020949</v>
+      </c>
+      <c r="E21">
+        <v>-0.0153163315560275</v>
+      </c>
+      <c r="F21">
+        <v>-0.0612953249950356</v>
+      </c>
+      <c r="G21">
+        <v>-0.07291632249412552</v>
+      </c>
+      <c r="H21">
+        <v>-0.1443992136286542</v>
+      </c>
+      <c r="I21">
+        <v>-0.07077751458157822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003505177884006193</v>
+        <v>-0.004031209274838495</v>
       </c>
       <c r="C22">
-        <v>-0.05512867278692623</v>
+        <v>0.06763240150877593</v>
       </c>
       <c r="D22">
-        <v>-0.1895566526404993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2362122796939659</v>
+      </c>
+      <c r="E22">
+        <v>0.04690891859670712</v>
+      </c>
+      <c r="F22">
+        <v>-0.0242547419555068</v>
+      </c>
+      <c r="G22">
+        <v>-0.1504682282122804</v>
+      </c>
+      <c r="H22">
+        <v>0.4752597109390868</v>
+      </c>
+      <c r="I22">
+        <v>0.2102359718411076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003325733128710796</v>
+        <v>-0.003607814006673318</v>
       </c>
       <c r="C23">
-        <v>-0.05554916934174361</v>
+        <v>0.06852418217376795</v>
       </c>
       <c r="D23">
-        <v>-0.189114199764252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2369641351358314</v>
+      </c>
+      <c r="E23">
+        <v>0.04404221571566469</v>
+      </c>
+      <c r="F23">
+        <v>-0.02323992759196963</v>
+      </c>
+      <c r="G23">
+        <v>-0.1490498049567421</v>
+      </c>
+      <c r="H23">
+        <v>0.4752546963332262</v>
+      </c>
+      <c r="I23">
+        <v>0.2117771982178772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0260888200558827</v>
+        <v>0.01484224608982963</v>
       </c>
       <c r="C24">
-        <v>-0.05919018160262175</v>
+        <v>0.0641596275426609</v>
       </c>
       <c r="D24">
-        <v>-0.07387156256528918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05897354488835976</v>
+      </c>
+      <c r="E24">
+        <v>0.02073868213520778</v>
+      </c>
+      <c r="F24">
+        <v>0.005603345200474568</v>
+      </c>
+      <c r="G24">
+        <v>-0.01776007263992416</v>
+      </c>
+      <c r="H24">
+        <v>-0.07549452272002095</v>
+      </c>
+      <c r="I24">
+        <v>0.005115771882866978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02941437637150383</v>
+        <v>0.01882478156073659</v>
       </c>
       <c r="C25">
-        <v>-0.05101056001242003</v>
+        <v>0.06013238520468892</v>
       </c>
       <c r="D25">
-        <v>-0.06909624236610647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05830076085706993</v>
+      </c>
+      <c r="E25">
+        <v>0.008890471235870709</v>
+      </c>
+      <c r="F25">
+        <v>0.009031480286939795</v>
+      </c>
+      <c r="G25">
+        <v>-0.004942429897726897</v>
+      </c>
+      <c r="H25">
+        <v>-0.04664017484879468</v>
+      </c>
+      <c r="I25">
+        <v>0.0009285317056762648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.004163538310367362</v>
+        <v>0.005048111121793048</v>
       </c>
       <c r="C26">
-        <v>-0.01511185353560496</v>
+        <v>0.0225584969467095</v>
       </c>
       <c r="D26">
-        <v>-0.07683863983725013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07277296543655795</v>
+      </c>
+      <c r="E26">
+        <v>0.0185429032564594</v>
+      </c>
+      <c r="F26">
+        <v>-0.02404933570943419</v>
+      </c>
+      <c r="G26">
+        <v>-0.03527388910768755</v>
+      </c>
+      <c r="H26">
+        <v>-0.06601125278906189</v>
+      </c>
+      <c r="I26">
+        <v>-0.03982451625962571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2444715555451229</v>
+        <v>0.3077659971392628</v>
       </c>
       <c r="C28">
-        <v>0.2076252091580331</v>
+        <v>-0.1440581071689541</v>
       </c>
       <c r="D28">
-        <v>-0.02027721056265164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005737562684189705</v>
+      </c>
+      <c r="E28">
+        <v>-0.04807057276341429</v>
+      </c>
+      <c r="F28">
+        <v>-0.03581414147504032</v>
+      </c>
+      <c r="G28">
+        <v>0.02547493620433833</v>
+      </c>
+      <c r="H28">
+        <v>0.02594148479361873</v>
+      </c>
+      <c r="I28">
+        <v>-0.08163691927871079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.005069311789488889</v>
+        <v>-0.001508784406695644</v>
       </c>
       <c r="C29">
-        <v>-0.02075248989059671</v>
+        <v>0.02635333864544657</v>
       </c>
       <c r="D29">
-        <v>-0.102141420284696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1041606590676511</v>
+      </c>
+      <c r="E29">
+        <v>0.03308775803365515</v>
+      </c>
+      <c r="F29">
+        <v>-0.03025087928153156</v>
+      </c>
+      <c r="G29">
+        <v>-0.05043688821282492</v>
+      </c>
+      <c r="H29">
+        <v>-0.0974412922517411</v>
+      </c>
+      <c r="I29">
+        <v>-0.01890564340455881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01334745481851676</v>
+        <v>0.01392772058234117</v>
       </c>
       <c r="C30">
-        <v>-0.06270125593848125</v>
+        <v>0.07807801352939683</v>
       </c>
       <c r="D30">
-        <v>-0.1698670749155425</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1719494102891041</v>
+      </c>
+      <c r="E30">
+        <v>0.03875683263708106</v>
+      </c>
+      <c r="F30">
+        <v>-0.03513800661766975</v>
+      </c>
+      <c r="G30">
+        <v>-0.03780600462099868</v>
+      </c>
+      <c r="H30">
+        <v>-0.03671258330410749</v>
+      </c>
+      <c r="I30">
+        <v>0.04742827764218149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03900752521923591</v>
+        <v>0.01817673527551638</v>
       </c>
       <c r="C31">
-        <v>-0.08395765331333835</v>
+        <v>0.08810684538054228</v>
       </c>
       <c r="D31">
-        <v>-0.07845509321308243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04723639833253233</v>
+      </c>
+      <c r="E31">
+        <v>0.007602483115378785</v>
+      </c>
+      <c r="F31">
+        <v>-0.01820065213310945</v>
+      </c>
+      <c r="G31">
+        <v>-0.02409865599030245</v>
+      </c>
+      <c r="H31">
+        <v>-0.03934001973905089</v>
+      </c>
+      <c r="I31">
+        <v>-0.05358664410560893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01982482210689629</v>
+        <v>0.0167678484188489</v>
       </c>
       <c r="C32">
-        <v>-0.03178636220870594</v>
+        <v>0.03710759870155391</v>
       </c>
       <c r="D32">
-        <v>-0.1111973343125549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1181125798132776</v>
+      </c>
+      <c r="E32">
+        <v>0.00238321868662244</v>
+      </c>
+      <c r="F32">
+        <v>-0.0435338054659802</v>
+      </c>
+      <c r="G32">
+        <v>-0.0259605055339066</v>
+      </c>
+      <c r="H32">
+        <v>-0.0164599077936317</v>
+      </c>
+      <c r="I32">
+        <v>-0.07208616765495571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01142023263637213</v>
+        <v>0.009671425820538695</v>
       </c>
       <c r="C33">
-        <v>-0.04218871774603612</v>
+        <v>0.0525337047136655</v>
       </c>
       <c r="D33">
-        <v>-0.1529395598957618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1345645530995167</v>
+      </c>
+      <c r="E33">
+        <v>0.01282166680783745</v>
+      </c>
+      <c r="F33">
+        <v>-0.02345248553851786</v>
+      </c>
+      <c r="G33">
+        <v>-0.02862948419783362</v>
+      </c>
+      <c r="H33">
+        <v>-0.05641373575622839</v>
+      </c>
+      <c r="I33">
+        <v>-0.007533202437336658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02515019696569087</v>
+        <v>0.01285431460069593</v>
       </c>
       <c r="C34">
-        <v>-0.0597924108632407</v>
+        <v>0.06323608918046501</v>
       </c>
       <c r="D34">
-        <v>-0.0549138900082449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03714707061671833</v>
+      </c>
+      <c r="E34">
+        <v>0.02946405064607435</v>
+      </c>
+      <c r="F34">
+        <v>0.03627466964779332</v>
+      </c>
+      <c r="G34">
+        <v>-0.01407962184477088</v>
+      </c>
+      <c r="H34">
+        <v>-0.0573789732834739</v>
+      </c>
+      <c r="I34">
+        <v>-0.009156999629747451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001365373388007115</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003604981203499496</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01444062368936846</v>
+      </c>
+      <c r="E35">
+        <v>0.00174935355255307</v>
+      </c>
+      <c r="F35">
+        <v>0.001394488045942568</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007426618099064802</v>
+      </c>
+      <c r="H35">
+        <v>-0.007040175155415838</v>
+      </c>
+      <c r="I35">
+        <v>0.003403206189819574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009296190803481945</v>
+        <v>0.01120421438404461</v>
       </c>
       <c r="C36">
-        <v>-0.005502564118905516</v>
+        <v>0.01747799198641279</v>
       </c>
       <c r="D36">
-        <v>-0.09924242082495854</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08879062072284243</v>
+      </c>
+      <c r="E36">
+        <v>0.006724510562278994</v>
+      </c>
+      <c r="F36">
+        <v>-0.03134686321595479</v>
+      </c>
+      <c r="G36">
+        <v>-0.02132758699375674</v>
+      </c>
+      <c r="H36">
+        <v>-0.05696716665795797</v>
+      </c>
+      <c r="I36">
+        <v>-0.0176574711942488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009036115045310331</v>
+        <v>0.01663088445962177</v>
       </c>
       <c r="C38">
-        <v>-0.01050686661064775</v>
+        <v>0.01642797924571302</v>
       </c>
       <c r="D38">
-        <v>-0.086653482036901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08599488114265502</v>
+      </c>
+      <c r="E38">
+        <v>-0.01317419131525262</v>
+      </c>
+      <c r="F38">
+        <v>0.01321161957263062</v>
+      </c>
+      <c r="G38">
+        <v>-0.0376078426966106</v>
+      </c>
+      <c r="H38">
+        <v>-0.04274802142461876</v>
+      </c>
+      <c r="I38">
+        <v>-0.010720057167065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02187248729966459</v>
+        <v>0.01232485492136685</v>
       </c>
       <c r="C39">
-        <v>-0.05820144575560932</v>
+        <v>0.07365897309826409</v>
       </c>
       <c r="D39">
-        <v>-0.1062325811350429</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1028755852645732</v>
+      </c>
+      <c r="E39">
+        <v>0.04555503367500062</v>
+      </c>
+      <c r="F39">
+        <v>0.01224906445708149</v>
+      </c>
+      <c r="G39">
+        <v>-0.02151626592025393</v>
+      </c>
+      <c r="H39">
+        <v>-0.09348229415180379</v>
+      </c>
+      <c r="I39">
+        <v>0.05045578000340608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.008629146681927101</v>
+        <v>0.004619326817236096</v>
       </c>
       <c r="C40">
-        <v>-0.04177785081658127</v>
+        <v>0.03928290335597302</v>
       </c>
       <c r="D40">
-        <v>-0.1180722977738894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1022099687274275</v>
+      </c>
+      <c r="E40">
+        <v>0.0166171386020603</v>
+      </c>
+      <c r="F40">
+        <v>-0.02580633704721174</v>
+      </c>
+      <c r="G40">
+        <v>-0.2471591280584362</v>
+      </c>
+      <c r="H40">
+        <v>-0.01694008758191212</v>
+      </c>
+      <c r="I40">
+        <v>-0.1403418088172184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.02015429877840635</v>
+        <v>0.01881892390193857</v>
       </c>
       <c r="C41">
-        <v>-0.0003746614104779183</v>
+        <v>0.01105505602482747</v>
       </c>
       <c r="D41">
-        <v>-0.07272800966183893</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0507637740660762</v>
+      </c>
+      <c r="E41">
+        <v>-0.01976004106782834</v>
+      </c>
+      <c r="F41">
+        <v>-0.01516347627467067</v>
+      </c>
+      <c r="G41">
+        <v>-0.02764232244977369</v>
+      </c>
+      <c r="H41">
+        <v>-0.02522293301432403</v>
+      </c>
+      <c r="I41">
+        <v>-0.04419770976378966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01288708770645995</v>
+        <v>0.01104410044133146</v>
       </c>
       <c r="C43">
-        <v>-0.007761327841779945</v>
+        <v>0.01514826170932022</v>
       </c>
       <c r="D43">
-        <v>-0.08852740487078906</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06408485874395184</v>
+      </c>
+      <c r="E43">
+        <v>-0.005729301142210205</v>
+      </c>
+      <c r="F43">
+        <v>-0.01037632051038033</v>
+      </c>
+      <c r="G43">
+        <v>-0.03370138552121671</v>
+      </c>
+      <c r="H43">
+        <v>-0.05563113212344924</v>
+      </c>
+      <c r="I43">
+        <v>-0.03897894911771066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.001359910848123947</v>
+        <v>0.002552280447735851</v>
       </c>
       <c r="C44">
-        <v>-0.03955594424602236</v>
+        <v>0.0429685991741323</v>
       </c>
       <c r="D44">
-        <v>-0.09940270433442651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1146779980359138</v>
+      </c>
+      <c r="E44">
+        <v>0.0007363949940267999</v>
+      </c>
+      <c r="F44">
+        <v>-0.02579084766308382</v>
+      </c>
+      <c r="G44">
+        <v>-0.04169552832571794</v>
+      </c>
+      <c r="H44">
+        <v>-0.04379838731681234</v>
+      </c>
+      <c r="I44">
+        <v>0.0307217935049154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005013589011560126</v>
+        <v>0.0004621474701278391</v>
       </c>
       <c r="C46">
-        <v>-0.02813713369556244</v>
+        <v>0.03398342287718389</v>
       </c>
       <c r="D46">
-        <v>-0.1083636974925149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09299518831816336</v>
+      </c>
+      <c r="E46">
+        <v>0.01689076989890406</v>
+      </c>
+      <c r="F46">
+        <v>-0.02465777825825011</v>
+      </c>
+      <c r="G46">
+        <v>-0.04977631227333694</v>
+      </c>
+      <c r="H46">
+        <v>-0.1099894250855593</v>
+      </c>
+      <c r="I46">
+        <v>-0.03269948488416428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07725081063812088</v>
+        <v>0.04629875354067571</v>
       </c>
       <c r="C47">
-        <v>-0.1055202232114904</v>
+        <v>0.1171361341778801</v>
       </c>
       <c r="D47">
-        <v>-0.06026224034932683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02842195742892235</v>
+      </c>
+      <c r="E47">
+        <v>-0.0110378380603261</v>
+      </c>
+      <c r="F47">
+        <v>0.00262122227661801</v>
+      </c>
+      <c r="G47">
+        <v>0.02124802427163107</v>
+      </c>
+      <c r="H47">
+        <v>-0.04050046032473367</v>
+      </c>
+      <c r="I47">
+        <v>-0.1168023958402806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.003904965953007368</v>
+        <v>0.005158144349418813</v>
       </c>
       <c r="C48">
-        <v>-0.01689851369233903</v>
+        <v>0.02519694977548846</v>
       </c>
       <c r="D48">
-        <v>-0.09379281311344428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08919405377447236</v>
+      </c>
+      <c r="E48">
+        <v>-0.01120619200241605</v>
+      </c>
+      <c r="F48">
+        <v>-0.03542462419872144</v>
+      </c>
+      <c r="G48">
+        <v>-0.03974580570640113</v>
+      </c>
+      <c r="H48">
+        <v>-0.07212638737116199</v>
+      </c>
+      <c r="I48">
+        <v>-0.01654065343620568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03641666690174937</v>
+        <v>0.01965275519377223</v>
       </c>
       <c r="C50">
-        <v>-0.06414129339179431</v>
+        <v>0.07258291744956004</v>
       </c>
       <c r="D50">
-        <v>-0.07893970634559394</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05733592648244901</v>
+      </c>
+      <c r="E50">
+        <v>0.002432721355557478</v>
+      </c>
+      <c r="F50">
+        <v>-0.007330799903446517</v>
+      </c>
+      <c r="G50">
+        <v>-0.0357271139118072</v>
+      </c>
+      <c r="H50">
+        <v>-0.02041215310632423</v>
+      </c>
+      <c r="I50">
+        <v>-0.08991234779523315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0009736094668238877</v>
+        <v>0.001224952012883037</v>
       </c>
       <c r="C51">
-        <v>-0.01078110661607799</v>
+        <v>0.01814342057124162</v>
       </c>
       <c r="D51">
-        <v>-0.06854883858412736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07373815953344924</v>
+      </c>
+      <c r="E51">
+        <v>0.02800493207594807</v>
+      </c>
+      <c r="F51">
+        <v>-0.0360978906821629</v>
+      </c>
+      <c r="G51">
+        <v>-0.05138003317278197</v>
+      </c>
+      <c r="H51">
+        <v>-0.04377690072599041</v>
+      </c>
+      <c r="I51">
+        <v>-0.009376253560490122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09602000079538796</v>
+        <v>0.06581494081267149</v>
       </c>
       <c r="C53">
-        <v>-0.1254971548174144</v>
+        <v>0.1482354452628797</v>
       </c>
       <c r="D53">
-        <v>-0.02212409867396347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004797016543277848</v>
+      </c>
+      <c r="E53">
+        <v>-0.04550992625019307</v>
+      </c>
+      <c r="F53">
+        <v>-0.06620747732135966</v>
+      </c>
+      <c r="G53">
+        <v>-0.03324267056313233</v>
+      </c>
+      <c r="H53">
+        <v>-0.002348125416637039</v>
+      </c>
+      <c r="I53">
+        <v>-0.0987160634178275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01078963528200995</v>
+        <v>0.007994071113461388</v>
       </c>
       <c r="C54">
-        <v>-0.0233861087848782</v>
+        <v>0.03426083370416629</v>
       </c>
       <c r="D54">
-        <v>-0.1160224114237837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09487237463160575</v>
+      </c>
+      <c r="E54">
+        <v>0.008933963524322833</v>
+      </c>
+      <c r="F54">
+        <v>-0.001911802848418945</v>
+      </c>
+      <c r="G54">
+        <v>-0.06030082529830855</v>
+      </c>
+      <c r="H54">
+        <v>-0.06654647307191765</v>
+      </c>
+      <c r="I54">
+        <v>-0.0596595335198376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.08827129212162324</v>
+        <v>0.0560786548293242</v>
       </c>
       <c r="C55">
-        <v>-0.1051519511292046</v>
+        <v>0.1237808887251169</v>
       </c>
       <c r="D55">
-        <v>-0.006644029939767965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01216582299791127</v>
+      </c>
+      <c r="E55">
+        <v>-0.006347403570643695</v>
+      </c>
+      <c r="F55">
+        <v>-0.03047224638136981</v>
+      </c>
+      <c r="G55">
+        <v>-0.04162613480798789</v>
+      </c>
+      <c r="H55">
+        <v>0.01085844748973146</v>
+      </c>
+      <c r="I55">
+        <v>-0.07820639111712199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1211974225640006</v>
+        <v>0.07818533682753613</v>
       </c>
       <c r="C56">
-        <v>-0.1352533728651511</v>
+        <v>0.171777554338809</v>
       </c>
       <c r="D56">
-        <v>-0.004007744518338097</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0127345114545285</v>
+      </c>
+      <c r="E56">
+        <v>-0.03775633147552208</v>
+      </c>
+      <c r="F56">
+        <v>-0.02839050421814071</v>
+      </c>
+      <c r="G56">
+        <v>-0.05217335039013808</v>
+      </c>
+      <c r="H56">
+        <v>0.02886966707310042</v>
+      </c>
+      <c r="I56">
+        <v>-0.08864598467735571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02694106149511311</v>
+        <v>-0.009896059677318117</v>
       </c>
       <c r="C58">
-        <v>-0.01992892817253984</v>
+        <v>0.04071827351290768</v>
       </c>
       <c r="D58">
-        <v>-0.2140440391363283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2874065438169442</v>
+      </c>
+      <c r="E58">
+        <v>-0.03624579011178461</v>
+      </c>
+      <c r="F58">
+        <v>-0.08904533746828372</v>
+      </c>
+      <c r="G58">
+        <v>-0.07032394641679031</v>
+      </c>
+      <c r="H58">
+        <v>0.15360175965771</v>
+      </c>
+      <c r="I58">
+        <v>0.0517087470378573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1728314576080677</v>
+        <v>0.2281299478138802</v>
       </c>
       <c r="C59">
-        <v>0.1466050623049992</v>
+        <v>-0.09861327192204723</v>
       </c>
       <c r="D59">
-        <v>-0.05261719400234868</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06737590212061433</v>
+      </c>
+      <c r="E59">
+        <v>-0.03513896799192268</v>
+      </c>
+      <c r="F59">
+        <v>-0.007416990092702121</v>
+      </c>
+      <c r="G59">
+        <v>0.004911744170901815</v>
+      </c>
+      <c r="H59">
+        <v>0.01601557097852904</v>
+      </c>
+      <c r="I59">
+        <v>-0.002428761707118287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2018757975778376</v>
+        <v>0.1654687775263729</v>
       </c>
       <c r="C60">
-        <v>-0.1121515385286245</v>
+        <v>0.1654769412411947</v>
       </c>
       <c r="D60">
-        <v>-0.1623398682798675</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07973841284616082</v>
+      </c>
+      <c r="E60">
+        <v>0.2625462227018225</v>
+      </c>
+      <c r="F60">
+        <v>0.1580102677228453</v>
+      </c>
+      <c r="G60">
+        <v>0.2540857020753702</v>
+      </c>
+      <c r="H60">
+        <v>0.1073696801981176</v>
+      </c>
+      <c r="I60">
+        <v>0.03851506859729571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03085217223465434</v>
+        <v>0.01856244014100885</v>
       </c>
       <c r="C61">
-        <v>-0.05915881256568122</v>
+        <v>0.07082117839680495</v>
       </c>
       <c r="D61">
-        <v>-0.116539711853981</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.090182856997802</v>
+      </c>
+      <c r="E61">
+        <v>0.0342229036189791</v>
+      </c>
+      <c r="F61">
+        <v>0.01674847391500416</v>
+      </c>
+      <c r="G61">
+        <v>-0.008144942171460317</v>
+      </c>
+      <c r="H61">
+        <v>-0.09674675917223359</v>
+      </c>
+      <c r="I61">
+        <v>-0.01781585930957489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007554644358383775</v>
+        <v>0.003948457055484784</v>
       </c>
       <c r="C63">
-        <v>-0.0260697842307866</v>
+        <v>0.0350786076987465</v>
       </c>
       <c r="D63">
-        <v>-0.09573713604979983</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07591022262748015</v>
+      </c>
+      <c r="E63">
+        <v>0.02103296028364645</v>
+      </c>
+      <c r="F63">
+        <v>-0.0198466584376983</v>
+      </c>
+      <c r="G63">
+        <v>-0.03128993440106779</v>
+      </c>
+      <c r="H63">
+        <v>-0.05299343986785764</v>
+      </c>
+      <c r="I63">
+        <v>-0.008879363213079847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05055355918239716</v>
+        <v>0.02738085490182479</v>
       </c>
       <c r="C64">
-        <v>-0.08480821056468318</v>
+        <v>0.09670708673020191</v>
       </c>
       <c r="D64">
-        <v>-0.06470864595398525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05160353857183689</v>
+      </c>
+      <c r="E64">
+        <v>0.02289153068104866</v>
+      </c>
+      <c r="F64">
+        <v>-0.034401808527939</v>
+      </c>
+      <c r="G64">
+        <v>0.01741482608103244</v>
+      </c>
+      <c r="H64">
+        <v>-0.1223452755234796</v>
+      </c>
+      <c r="I64">
+        <v>-0.005377061258729868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02125300322368588</v>
+        <v>0.01682366751274022</v>
       </c>
       <c r="C65">
-        <v>-0.02053741115715245</v>
+        <v>0.03703444676122076</v>
       </c>
       <c r="D65">
-        <v>-0.1207155737413247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1080194573359001</v>
+      </c>
+      <c r="E65">
+        <v>0.0404729672990603</v>
+      </c>
+      <c r="F65">
+        <v>-0.009121803843407675</v>
+      </c>
+      <c r="G65">
+        <v>-0.01083317341775331</v>
+      </c>
+      <c r="H65">
+        <v>-0.01454781706201524</v>
+      </c>
+      <c r="I65">
+        <v>-0.01134099472401325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02327148506008481</v>
+        <v>0.0122228127347036</v>
       </c>
       <c r="C66">
-        <v>-0.06628791693540338</v>
+        <v>0.08607820744459579</v>
       </c>
       <c r="D66">
-        <v>-0.1198369623633092</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1306855337941489</v>
+      </c>
+      <c r="E66">
+        <v>0.03715873317302186</v>
+      </c>
+      <c r="F66">
+        <v>0.02029318945777261</v>
+      </c>
+      <c r="G66">
+        <v>-0.01463407799473135</v>
+      </c>
+      <c r="H66">
+        <v>-0.05522224198051719</v>
+      </c>
+      <c r="I66">
+        <v>0.05390817139409407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0305202192364872</v>
+        <v>0.02991279930289222</v>
       </c>
       <c r="C67">
-        <v>-0.02222196806137432</v>
+        <v>0.02947979358609629</v>
       </c>
       <c r="D67">
-        <v>-0.04005433324156255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0338091420844843</v>
+      </c>
+      <c r="E67">
+        <v>0.001918740102791229</v>
+      </c>
+      <c r="F67">
+        <v>0.03167770439928324</v>
+      </c>
+      <c r="G67">
+        <v>-0.03014630646741936</v>
+      </c>
+      <c r="H67">
+        <v>-0.0543711149736965</v>
+      </c>
+      <c r="I67">
+        <v>-0.003401386813559453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2134139477470632</v>
+        <v>0.2598427615963935</v>
       </c>
       <c r="C68">
-        <v>0.1607692646684326</v>
+        <v>-0.1001624571952304</v>
       </c>
       <c r="D68">
-        <v>-0.03485127220199928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03608271631255602</v>
+      </c>
+      <c r="E68">
+        <v>-0.002328190200162422</v>
+      </c>
+      <c r="F68">
+        <v>-0.02641327180801051</v>
+      </c>
+      <c r="G68">
+        <v>-0.04601598412977482</v>
+      </c>
+      <c r="H68">
+        <v>0.0475880604620245</v>
+      </c>
+      <c r="I68">
+        <v>-0.06810964006033988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06211016326368271</v>
+        <v>0.03509586615563172</v>
       </c>
       <c r="C69">
-        <v>-0.1112815099289349</v>
+        <v>0.1158393876573316</v>
       </c>
       <c r="D69">
-        <v>-0.08355077047035633</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04384089228747682</v>
+      </c>
+      <c r="E69">
+        <v>0.005914963103439427</v>
+      </c>
+      <c r="F69">
+        <v>0.007461038488438025</v>
+      </c>
+      <c r="G69">
+        <v>0.01152072561445779</v>
+      </c>
+      <c r="H69">
+        <v>-0.04029843324326275</v>
+      </c>
+      <c r="I69">
+        <v>-0.07516124134664066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2112281719270069</v>
+        <v>0.2572635016365441</v>
       </c>
       <c r="C71">
-        <v>0.1741537568616526</v>
+        <v>-0.1140009941252092</v>
       </c>
       <c r="D71">
-        <v>-0.04507817171773148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03745734837941814</v>
+      </c>
+      <c r="E71">
+        <v>-0.00980488611098251</v>
+      </c>
+      <c r="F71">
+        <v>-0.02804472060951676</v>
+      </c>
+      <c r="G71">
+        <v>-0.05532356996195052</v>
+      </c>
+      <c r="H71">
+        <v>0.007622611213105587</v>
+      </c>
+      <c r="I71">
+        <v>-0.1592497058548599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1029278557935548</v>
+        <v>0.06925371194791295</v>
       </c>
       <c r="C72">
-        <v>-0.07843173755494014</v>
+        <v>0.1170337472338484</v>
       </c>
       <c r="D72">
-        <v>-0.09714007313305431</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07152796552653735</v>
+      </c>
+      <c r="E72">
+        <v>0.0907838724159236</v>
+      </c>
+      <c r="F72">
+        <v>0.0051108544208011</v>
+      </c>
+      <c r="G72">
+        <v>-0.01016857948458158</v>
+      </c>
+      <c r="H72">
+        <v>-0.05769477271307777</v>
+      </c>
+      <c r="I72">
+        <v>0.008742376167187562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1853070861072546</v>
+        <v>0.1500498823526155</v>
       </c>
       <c r="C73">
-        <v>-0.06104424497821353</v>
+        <v>0.1254529470157975</v>
       </c>
       <c r="D73">
-        <v>-0.2054699751781226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06507223590610485</v>
+      </c>
+      <c r="E73">
+        <v>0.4468937460721927</v>
+      </c>
+      <c r="F73">
+        <v>0.2335768212063607</v>
+      </c>
+      <c r="G73">
+        <v>0.4219860113400317</v>
+      </c>
+      <c r="H73">
+        <v>0.01254830083398183</v>
+      </c>
+      <c r="I73">
+        <v>0.04252850569213939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.0970349439496893</v>
+        <v>0.06235067399012253</v>
       </c>
       <c r="C74">
-        <v>-0.1107879035109467</v>
+        <v>0.1319972543217004</v>
       </c>
       <c r="D74">
-        <v>0.01450182068712628</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02698791731575252</v>
+      </c>
+      <c r="E74">
+        <v>-0.02296202915404673</v>
+      </c>
+      <c r="F74">
+        <v>-0.05866928638026934</v>
+      </c>
+      <c r="G74">
+        <v>-0.003390586867313922</v>
+      </c>
+      <c r="H74">
+        <v>0.01829173838580483</v>
+      </c>
+      <c r="I74">
+        <v>-0.09499323663230262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2431430549041683</v>
+        <v>0.1649832396963748</v>
       </c>
       <c r="C75">
-        <v>-0.1965983423645281</v>
+        <v>0.2541604806613265</v>
       </c>
       <c r="D75">
-        <v>0.1003872054901905</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1241092042291751</v>
+      </c>
+      <c r="E75">
+        <v>-0.08121005813579364</v>
+      </c>
+      <c r="F75">
+        <v>0.03252933167346105</v>
+      </c>
+      <c r="G75">
+        <v>-0.05027300197418118</v>
+      </c>
+      <c r="H75">
+        <v>0.02218359544282835</v>
+      </c>
+      <c r="I75">
+        <v>-0.08046954128087168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1353034082776496</v>
+        <v>0.08670213085195813</v>
       </c>
       <c r="C76">
-        <v>-0.1421294803134971</v>
+        <v>0.1732773776907144</v>
       </c>
       <c r="D76">
-        <v>-0.01825847859377375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01264184740966752</v>
+      </c>
+      <c r="E76">
+        <v>-0.03858792625559962</v>
+      </c>
+      <c r="F76">
+        <v>-0.01502621561310782</v>
+      </c>
+      <c r="G76">
+        <v>-0.0561082856937536</v>
+      </c>
+      <c r="H76">
+        <v>-0.01079202230196413</v>
+      </c>
+      <c r="I76">
+        <v>-0.09877810040653301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02443464757236689</v>
+        <v>0.03423774866445422</v>
       </c>
       <c r="C77">
-        <v>-0.08171551347018728</v>
+        <v>0.09485918749719159</v>
       </c>
       <c r="D77">
-        <v>-0.0528854538873153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2433074402954483</v>
+      </c>
+      <c r="E77">
+        <v>-0.6938975584945648</v>
+      </c>
+      <c r="F77">
+        <v>0.4009128961365705</v>
+      </c>
+      <c r="G77">
+        <v>0.3553764998103475</v>
+      </c>
+      <c r="H77">
+        <v>0.2022013046439242</v>
+      </c>
+      <c r="I77">
+        <v>-0.1171505423408586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.01978006576484469</v>
+        <v>0.01851551295849138</v>
       </c>
       <c r="C78">
-        <v>-0.07133520998610543</v>
+        <v>0.08227534043280411</v>
       </c>
       <c r="D78">
-        <v>-0.1601058109351728</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.145289174229413</v>
+      </c>
+      <c r="E78">
+        <v>0.0479475096629</v>
+      </c>
+      <c r="F78">
+        <v>-0.03609359635250094</v>
+      </c>
+      <c r="G78">
+        <v>-0.01112038960251423</v>
+      </c>
+      <c r="H78">
+        <v>-0.02011112796373732</v>
+      </c>
+      <c r="I78">
+        <v>0.03449349754593611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.06653679806801782</v>
+        <v>0.04242456955028812</v>
       </c>
       <c r="C79">
-        <v>-0.1435735452957919</v>
+        <v>0.1625410453263541</v>
       </c>
       <c r="D79">
-        <v>0.08274234635654011</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03431724362442811</v>
+      </c>
+      <c r="E79">
+        <v>-0.1543460063482039</v>
+      </c>
+      <c r="F79">
+        <v>-0.778862912258215</v>
+      </c>
+      <c r="G79">
+        <v>0.4762894199874776</v>
+      </c>
+      <c r="H79">
+        <v>0.06005952907880435</v>
+      </c>
+      <c r="I79">
+        <v>0.1421867828727618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009869048983660832</v>
+        <v>0.004664920225383347</v>
       </c>
       <c r="C80">
-        <v>-0.05316788353180608</v>
+        <v>0.05317536483618156</v>
       </c>
       <c r="D80">
-        <v>-0.05009192912768496</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04296966114450806</v>
+      </c>
+      <c r="E80">
+        <v>0.01834759401008237</v>
+      </c>
+      <c r="F80">
+        <v>-0.01452152777669464</v>
+      </c>
+      <c r="G80">
+        <v>-0.06271981724199109</v>
+      </c>
+      <c r="H80">
+        <v>-0.006655825178984807</v>
+      </c>
+      <c r="I80">
+        <v>-0.03170714650571802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1230597418636384</v>
+        <v>0.0744026492891699</v>
       </c>
       <c r="C81">
-        <v>-0.1409745759361765</v>
+        <v>0.1648157616104052</v>
       </c>
       <c r="D81">
-        <v>0.06784415541240382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07422977714259983</v>
+      </c>
+      <c r="E81">
+        <v>-0.07644865292027676</v>
+      </c>
+      <c r="F81">
+        <v>-0.04937551882051197</v>
+      </c>
+      <c r="G81">
+        <v>-0.07443950499040244</v>
+      </c>
+      <c r="H81">
+        <v>-0.04116029807830616</v>
+      </c>
+      <c r="I81">
+        <v>-0.1187728568289621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2346383864990407</v>
+        <v>0.1352138995410979</v>
       </c>
       <c r="C82">
-        <v>-0.3028109794748461</v>
+        <v>0.318286065369295</v>
       </c>
       <c r="D82">
-        <v>0.2138877354674729</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2159753835375937</v>
+      </c>
+      <c r="E82">
+        <v>-0.04810937781017185</v>
+      </c>
+      <c r="F82">
+        <v>0.08984875815272485</v>
+      </c>
+      <c r="G82">
+        <v>-0.09967307595506511</v>
+      </c>
+      <c r="H82">
+        <v>-0.06063342656055334</v>
+      </c>
+      <c r="I82">
+        <v>-0.09766216089815312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.007463275853737114</v>
+        <v>-0.003199236235734785</v>
       </c>
       <c r="C83">
-        <v>-0.06203684899113413</v>
+        <v>0.05237228082365744</v>
       </c>
       <c r="D83">
-        <v>-0.02323024532227511</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04554845721919108</v>
+      </c>
+      <c r="E83">
+        <v>-0.09398932697120725</v>
+      </c>
+      <c r="F83">
+        <v>0.0264471388904705</v>
+      </c>
+      <c r="G83">
+        <v>-0.0331724764639522</v>
+      </c>
+      <c r="H83">
+        <v>-0.05290586474821886</v>
+      </c>
+      <c r="I83">
+        <v>0.1468971461450616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001574446885345417</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01348797847681483</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03358120199891735</v>
+      </c>
+      <c r="E84">
+        <v>-0.006876930769489247</v>
+      </c>
+      <c r="F84">
+        <v>-0.01788018769568515</v>
+      </c>
+      <c r="G84">
+        <v>-0.03656901195330684</v>
+      </c>
+      <c r="H84">
+        <v>0.009026300403104627</v>
+      </c>
+      <c r="I84">
+        <v>0.02707479279816118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1539725983717884</v>
+        <v>0.09700072899616854</v>
       </c>
       <c r="C85">
-        <v>-0.1456368798501769</v>
+        <v>0.1884002001433241</v>
       </c>
       <c r="D85">
-        <v>0.05105490636461326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08871355607410909</v>
+      </c>
+      <c r="E85">
+        <v>-4.256252093264851e-05</v>
+      </c>
+      <c r="F85">
+        <v>-0.07018380818868541</v>
+      </c>
+      <c r="G85">
+        <v>-0.01118979508595694</v>
+      </c>
+      <c r="H85">
+        <v>0.009459937381578402</v>
+      </c>
+      <c r="I85">
+        <v>-0.07182269260410069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.006804408099783926</v>
+        <v>0.008351936867079678</v>
       </c>
       <c r="C86">
-        <v>-0.025042537817527</v>
+        <v>0.0282241870293954</v>
       </c>
       <c r="D86">
-        <v>-0.09243071811434073</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1085871977564629</v>
+      </c>
+      <c r="E86">
+        <v>-0.04399999050336623</v>
+      </c>
+      <c r="F86">
+        <v>0.01461341120632362</v>
+      </c>
+      <c r="G86">
+        <v>-0.01758017279486053</v>
+      </c>
+      <c r="H86">
+        <v>-0.007878713470656364</v>
+      </c>
+      <c r="I86">
+        <v>-0.1076818317056781</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01779545764267658</v>
+        <v>0.01998691031424719</v>
       </c>
       <c r="C87">
-        <v>-0.02515826820416766</v>
+        <v>0.04573491720793024</v>
       </c>
       <c r="D87">
-        <v>-0.1260418881465546</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1506583660129036</v>
+      </c>
+      <c r="E87">
+        <v>-0.01548223346746709</v>
+      </c>
+      <c r="F87">
+        <v>-0.03440336490818161</v>
+      </c>
+      <c r="G87">
+        <v>-0.05979606025025862</v>
+      </c>
+      <c r="H87">
+        <v>-0.0160296096753815</v>
+      </c>
+      <c r="I87">
+        <v>0.08912104821664033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05952501366229806</v>
+        <v>0.04126398761166098</v>
       </c>
       <c r="C88">
-        <v>-0.04518280905766861</v>
+        <v>0.06274864457376264</v>
       </c>
       <c r="D88">
-        <v>-0.04274339330745092</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01148426461212563</v>
+      </c>
+      <c r="E88">
+        <v>0.02061969770948877</v>
+      </c>
+      <c r="F88">
+        <v>-0.02309896953357343</v>
+      </c>
+      <c r="G88">
+        <v>0.009318294667900085</v>
+      </c>
+      <c r="H88">
+        <v>-0.02265182379928632</v>
+      </c>
+      <c r="I88">
+        <v>-0.03776994796168633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3258002764387062</v>
+        <v>0.3922839818292899</v>
       </c>
       <c r="C89">
-        <v>0.3286126480598743</v>
+        <v>-0.2161624345782993</v>
       </c>
       <c r="D89">
-        <v>-0.01044186517754799</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02310619107681177</v>
+      </c>
+      <c r="E89">
+        <v>-0.05210730344154803</v>
+      </c>
+      <c r="F89">
+        <v>-0.0513012577684135</v>
+      </c>
+      <c r="G89">
+        <v>-0.08973286355965732</v>
+      </c>
+      <c r="H89">
+        <v>-0.1547045336856086</v>
+      </c>
+      <c r="I89">
+        <v>0.4019556638935314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2598497007959187</v>
+        <v>0.3053694551338758</v>
       </c>
       <c r="C90">
-        <v>0.2351114439040326</v>
+        <v>-0.144673334753549</v>
       </c>
       <c r="D90">
-        <v>-0.03626829992315325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03946784707029171</v>
+      </c>
+      <c r="E90">
+        <v>-0.007759588518554304</v>
+      </c>
+      <c r="F90">
+        <v>0.01652103472014556</v>
+      </c>
+      <c r="G90">
+        <v>-0.05066217061445664</v>
+      </c>
+      <c r="H90">
+        <v>0.03761693462578838</v>
+      </c>
+      <c r="I90">
+        <v>-0.06229616921662728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.151722472201982</v>
+        <v>0.09457394390220027</v>
       </c>
       <c r="C91">
-        <v>-0.1878203244117522</v>
+        <v>0.205873848446862</v>
       </c>
       <c r="D91">
-        <v>0.1003771348924819</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1024749596228282</v>
+      </c>
+      <c r="E91">
+        <v>-0.07910998445515287</v>
+      </c>
+      <c r="F91">
+        <v>-0.07800203453095217</v>
+      </c>
+      <c r="G91">
+        <v>-0.01353584743076753</v>
+      </c>
+      <c r="H91">
+        <v>0.0103289485473295</v>
+      </c>
+      <c r="I91">
+        <v>-0.1109223968196765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2318729950709128</v>
+        <v>0.3091176830953085</v>
       </c>
       <c r="C92">
-        <v>0.2510236155494708</v>
+        <v>-0.184373275607865</v>
       </c>
       <c r="D92">
-        <v>0.02611698768871416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01167478244765622</v>
+      </c>
+      <c r="E92">
+        <v>-0.08463468088485313</v>
+      </c>
+      <c r="F92">
+        <v>-0.03073862677157851</v>
+      </c>
+      <c r="G92">
+        <v>-0.03786287306572426</v>
+      </c>
+      <c r="H92">
+        <v>-0.006009081014140086</v>
+      </c>
+      <c r="I92">
+        <v>0.01756554220831538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2866949648282361</v>
+        <v>0.3263208008272652</v>
       </c>
       <c r="C93">
-        <v>0.2486335688924657</v>
+        <v>-0.153474155196012</v>
       </c>
       <c r="D93">
-        <v>-0.02702910740594339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002398113531758277</v>
+      </c>
+      <c r="E93">
+        <v>0.03538621206931664</v>
+      </c>
+      <c r="F93">
+        <v>-0.01738210465274376</v>
+      </c>
+      <c r="G93">
+        <v>0.03042610324426244</v>
+      </c>
+      <c r="H93">
+        <v>0.01446270423497063</v>
+      </c>
+      <c r="I93">
+        <v>-0.1298419056734293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3001194451217048</v>
+        <v>0.1940768378071375</v>
       </c>
       <c r="C94">
-        <v>-0.2776017349394421</v>
+        <v>0.3458892598402259</v>
       </c>
       <c r="D94">
-        <v>0.3639673231108909</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3554070681073309</v>
+      </c>
+      <c r="E94">
+        <v>-0.05450868652346931</v>
+      </c>
+      <c r="F94">
+        <v>0.09285165271265064</v>
+      </c>
+      <c r="G94">
+        <v>-0.2786905733425062</v>
+      </c>
+      <c r="H94">
+        <v>0.1403597210161828</v>
+      </c>
+      <c r="I94">
+        <v>0.4167147435262349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03001775861589825</v>
+        <v>0.0272183247111726</v>
       </c>
       <c r="C95">
-        <v>-0.04230982328732781</v>
+        <v>0.06332999863572727</v>
       </c>
       <c r="D95">
-        <v>-0.08331275918379573</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1137156349917858</v>
+      </c>
+      <c r="E95">
+        <v>-0.209040727741802</v>
+      </c>
+      <c r="F95">
+        <v>0.1573418460582464</v>
+      </c>
+      <c r="G95">
+        <v>0.1271229505869412</v>
+      </c>
+      <c r="H95">
+        <v>-0.4609384329834733</v>
+      </c>
+      <c r="I95">
+        <v>0.4756766020370077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0001063060038937055</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001817540989310647</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001986037581262534</v>
+      </c>
+      <c r="E97">
+        <v>0.0003789534450110568</v>
+      </c>
+      <c r="F97">
+        <v>0.001428929998215651</v>
+      </c>
+      <c r="G97">
+        <v>0.001022490623816459</v>
+      </c>
+      <c r="H97">
+        <v>-0.001499632084036582</v>
+      </c>
+      <c r="I97">
+        <v>-5.202783049309158e-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1523886633900708</v>
+        <v>0.1288897220555027</v>
       </c>
       <c r="C98">
-        <v>-0.07723909236988792</v>
+        <v>0.126142953487875</v>
       </c>
       <c r="D98">
-        <v>-0.1322426199995645</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0619335144825971</v>
+      </c>
+      <c r="E98">
+        <v>0.2892955848056789</v>
+      </c>
+      <c r="F98">
+        <v>0.1439686883278992</v>
+      </c>
+      <c r="G98">
+        <v>0.2454284448650237</v>
+      </c>
+      <c r="H98">
+        <v>0.05573817850863656</v>
+      </c>
+      <c r="I98">
+        <v>-0.002877625384945548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.004671273978899577</v>
+        <v>-0.00114720798710775</v>
       </c>
       <c r="C101">
-        <v>-0.02028272303931066</v>
+        <v>0.02579086032225444</v>
       </c>
       <c r="D101">
-        <v>-0.102397415403339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1038461339978781</v>
+      </c>
+      <c r="E101">
+        <v>0.03226210301191711</v>
+      </c>
+      <c r="F101">
+        <v>-0.03058054535740694</v>
+      </c>
+      <c r="G101">
+        <v>-0.05105427931539253</v>
+      </c>
+      <c r="H101">
+        <v>-0.09870282745570284</v>
+      </c>
+      <c r="I101">
+        <v>-0.01855479470272895</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1083645263850237</v>
+        <v>0.05902725353793827</v>
       </c>
       <c r="C102">
-        <v>-0.1515127096019179</v>
+        <v>0.1506517644693149</v>
       </c>
       <c r="D102">
-        <v>0.07155235428284644</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08676668947972418</v>
+      </c>
+      <c r="E102">
+        <v>-0.03174250273899767</v>
+      </c>
+      <c r="F102">
+        <v>0.05937010596228228</v>
+      </c>
+      <c r="G102">
+        <v>-0.003711853620394161</v>
+      </c>
+      <c r="H102">
+        <v>-0.05528985156566636</v>
+      </c>
+      <c r="I102">
+        <v>-0.03257650065189959</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
